--- a/data/results/all_lemmas_annotated.xlsx
+++ b/data/results/all_lemmas_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_12592DBC445CD00F62355476585DCE3A8746B9DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF17C05-69D3-42CA-98B2-9E66059A3E03}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_12592DBC445CD00F62355476585DCE3A8746B9DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853FCB07-4C74-4686-A5A1-E92F99CC3CDD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="523">
   <si>
     <t>Token</t>
   </si>
@@ -1586,6 +1586,9 @@
   </si>
   <si>
     <t>foreign</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1675,6 +1678,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,7 +1972,7 @@
   <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,7 +2393,7 @@
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,7 +3175,7 @@
         <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,7 +3267,7 @@
         <v>210</v>
       </c>
       <c r="G56" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,7 +3658,7 @@
         <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,7 +3888,7 @@
         <v>306</v>
       </c>
       <c r="G83" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4072,7 @@
         <v>332</v>
       </c>
       <c r="G91" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/results/all_lemmas_annotated.xlsx
+++ b/data/results/all_lemmas_annotated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_12592DBC445CD00F62355476585DCE3A8746B9DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853FCB07-4C74-4686-A5A1-E92F99CC3CDD}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_12592DBC445CD00F62355476585DCE3A8746B9DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA230E3-DFC9-4E78-9BA5-38A94807C4F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="527">
   <si>
     <t>Token</t>
   </si>
@@ -1573,9 +1573,6 @@
     <t>ambiguous</t>
   </si>
   <si>
-    <t>archaic</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1589,6 +1586,21 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>mojego Oyca –</t>
+  </si>
+  <si>
+    <t>familii Oyca się</t>
+  </si>
+  <si>
+    <t>mojego Oyca pono</t>
+  </si>
+  <si>
+    <t>śmierci Oyca z</t>
+  </si>
+  <si>
+    <t>grammar</t>
   </si>
 </sst>
 </file>
@@ -1969,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2405,7 @@
         <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,7 +2497,7 @@
         <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,7 +2520,7 @@
         <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,7 +2543,7 @@
         <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,7 +2750,7 @@
         <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,321 +2847,321 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1115</v>
+        <v>968</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>397</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>397</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>399</v>
       </c>
       <c r="G38" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1117</v>
+        <v>976</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>523</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>397</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>399</v>
       </c>
       <c r="G39" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1181</v>
+        <v>1119</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1215</v>
+        <v>1123</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1233</v>
+        <v>1181</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G44" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1321</v>
+        <v>1215</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1323</v>
+        <v>1233</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G49" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1418</v>
+        <v>1334</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1439</v>
+        <v>1340</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
         <v>514</v>
@@ -3157,183 +3169,183 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1497</v>
+        <v>1418</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1509</v>
+        <v>1439</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G54" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1527</v>
+        <v>1509</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1604</v>
+        <v>1517</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1605</v>
+        <v>1527</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G58" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
         <v>514</v>
@@ -3341,22 +3353,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G60" t="s">
         <v>514</v>
@@ -3364,206 +3376,206 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1734</v>
+        <v>1615</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G62" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1741</v>
+        <v>1626</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G63" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G64" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1772</v>
+        <v>1741</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G65" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1777</v>
+        <v>1754</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1790</v>
+        <v>1772</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G69" t="s">
         <v>514</v>
@@ -3571,275 +3583,275 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1830</v>
+        <v>1794</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G71" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1881</v>
+        <v>1804</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="G72" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1913</v>
+        <v>1830</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G73" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1938</v>
+        <v>1881</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G74" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1941</v>
+        <v>1913</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="G75" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="G76" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F79" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G79" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1997</v>
+        <v>1957</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
         <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G81" t="s">
         <v>515</v>
@@ -3847,137 +3859,137 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>2013</v>
+        <v>1966</v>
       </c>
       <c r="B82" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G82" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>2121</v>
+        <v>1997</v>
       </c>
       <c r="B83" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G83" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>2149</v>
+        <v>2013</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G84" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>2150</v>
+        <v>2121</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G85" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>2183</v>
+        <v>2149</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>2196</v>
+        <v>2150</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F87" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G87" t="s">
         <v>514</v>
@@ -3985,13 +3997,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>2211</v>
+        <v>2183</v>
       </c>
       <c r="B88" t="s">
         <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
         <v>55</v>
@@ -4008,22 +4020,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>2215</v>
+        <v>2196</v>
       </c>
       <c r="B89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G89" t="s">
         <v>514</v>
@@ -4031,68 +4043,68 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>2256</v>
+        <v>2215</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G91" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>2274</v>
+        <v>2216</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G92" t="s">
         <v>514</v>
@@ -4100,91 +4112,91 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>2298</v>
+        <v>2256</v>
       </c>
       <c r="B93" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D93" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E93" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F93" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G93" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>2328</v>
+        <v>2274</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>335</v>
       </c>
       <c r="E94" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="G94" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>2331</v>
+        <v>2298</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="E95" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="G95" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>2335</v>
+        <v>2328</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="F96" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
         <v>513</v>
@@ -4192,114 +4204,114 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>2340</v>
+        <v>2331</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="G97" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>2403</v>
+        <v>2335</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C98" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D98" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>2415</v>
+        <v>2340</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F99" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="G99" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>2450</v>
+        <v>2403</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E100" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F100" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G100" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>2454</v>
+        <v>2415</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D101" t="s">
-        <v>357</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G101" t="s">
         <v>515</v>
@@ -4307,68 +4319,68 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>2508</v>
+        <v>2450</v>
       </c>
       <c r="B102" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C102" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E102" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F102" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G102" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>2513</v>
+        <v>2454</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
+        <v>355</v>
       </c>
       <c r="G103" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>2564</v>
+        <v>2508</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C104" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D104" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E104" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F104" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G104" t="s">
         <v>514</v>
@@ -4376,22 +4388,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>2573</v>
+        <v>2513</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D105" t="s">
-        <v>370</v>
+        <v>129</v>
       </c>
       <c r="E105" t="s">
-        <v>368</v>
+        <v>130</v>
       </c>
       <c r="F105" t="s">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
         <v>513</v>
@@ -4399,22 +4411,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>2575</v>
+        <v>2564</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D106" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G106" t="s">
         <v>514</v>
@@ -4422,114 +4434,114 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>2589</v>
+        <v>2573</v>
       </c>
       <c r="B107" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C107" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D107" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E107" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F107" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G107" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>2595</v>
+        <v>2575</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C108" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E108" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F108" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G108" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>376</v>
       </c>
       <c r="C109" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>376</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="G109" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>2601</v>
+        <v>2595</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E110" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F110" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G110" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>2642</v>
+        <v>2597</v>
       </c>
       <c r="B111" t="s">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D111" t="s">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="F111" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="G111" t="s">
         <v>513</v>
@@ -4537,36 +4549,36 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>2646</v>
+        <v>2601</v>
       </c>
       <c r="B112" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C112" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D112" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E112" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F112" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G112" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>2647</v>
+        <v>2628</v>
       </c>
       <c r="B113" t="s">
         <v>397</v>
       </c>
       <c r="C113" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="D113" t="s">
         <v>186</v>
@@ -4583,160 +4595,160 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>2710</v>
+        <v>2642</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="E114" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="F114" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>2720</v>
+        <v>2646</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D115" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="E115" t="s">
-        <v>130</v>
+        <v>393</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>396</v>
       </c>
       <c r="G115" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>2728</v>
+        <v>2647</v>
       </c>
       <c r="B116" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D116" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="E116" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F116" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G116" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>2751</v>
+        <v>2710</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="C117" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="E117" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
       <c r="F117" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
       <c r="G117" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>2764</v>
+        <v>2720</v>
       </c>
       <c r="B118" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C118" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D118" t="s">
-        <v>413</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="F118" t="s">
-        <v>414</v>
+        <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>2804</v>
+        <v>2728</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>406</v>
       </c>
       <c r="C119" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="E119" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="F119" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="G119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>2806</v>
+        <v>2751</v>
       </c>
       <c r="B120" t="s">
-        <v>416</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D120" t="s">
-        <v>418</v>
+        <v>186</v>
       </c>
       <c r="E120" t="s">
-        <v>416</v>
+        <v>184</v>
       </c>
       <c r="F120" t="s">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="G120" t="s">
         <v>514</v>
@@ -4744,22 +4756,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>2847</v>
+        <v>2764</v>
       </c>
       <c r="B121" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C121" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D121" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F121" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G121" t="s">
         <v>514</v>
@@ -4767,22 +4779,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>2865</v>
+        <v>2804</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="E122" t="s">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="F122" t="s">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="G122" t="s">
         <v>515</v>
@@ -4790,22 +4802,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>2893</v>
+        <v>2806</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D123" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E123" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F123" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G123" t="s">
         <v>514</v>
@@ -4813,183 +4825,183 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>2894</v>
+        <v>2847</v>
       </c>
       <c r="B124" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C124" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D124" t="s">
-        <v>293</v>
+        <v>422</v>
       </c>
       <c r="E124" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F124" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>2931</v>
+        <v>2865</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C125" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="E125" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="F125" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="G125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>2938</v>
+        <v>2893</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C126" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E126" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F126" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G126" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>2940</v>
+        <v>2894</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C127" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D127" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
       <c r="E127" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F127" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G127" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>2963</v>
+        <v>2931</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C128" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>186</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="F128" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="G128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>2967</v>
+        <v>2938</v>
       </c>
       <c r="B129" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C129" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D129" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E129" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F129" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G129" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>2976</v>
+        <v>2940</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E130" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F130" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G130" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>2979</v>
+        <v>2948</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C131" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="D131" t="s">
-        <v>429</v>
+        <v>186</v>
       </c>
       <c r="E131" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="F131" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="G131" t="s">
         <v>514</v>
@@ -4997,45 +5009,45 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>2986</v>
+        <v>2963</v>
       </c>
       <c r="B132" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C132" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D132" t="s">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="E132" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="F132" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G132" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>3017</v>
+        <v>2967</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
       <c r="C133" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="E133" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
       <c r="F133" t="s">
-        <v>206</v>
+        <v>450</v>
       </c>
       <c r="G133" t="s">
         <v>513</v>
@@ -5043,114 +5055,114 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>3050</v>
+        <v>2976</v>
       </c>
       <c r="B134" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C134" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E134" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F134" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G134" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>3085</v>
+        <v>2979</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>427</v>
       </c>
       <c r="C135" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="E135" t="s">
-        <v>252</v>
+        <v>427</v>
       </c>
       <c r="F135" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="G135" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>3127</v>
+        <v>2986</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C136" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D136" t="s">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G136" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>3131</v>
+        <v>3017</v>
       </c>
       <c r="B137" t="s">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D137" t="s">
-        <v>471</v>
+        <v>129</v>
       </c>
       <c r="E137" t="s">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="F137" t="s">
-        <v>472</v>
+        <v>206</v>
       </c>
       <c r="G137" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>3133</v>
+        <v>3050</v>
       </c>
       <c r="B138" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C138" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D138" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E138" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F138" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G138" t="s">
         <v>513</v>
@@ -5158,45 +5170,45 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>3143</v>
+        <v>3085</v>
       </c>
       <c r="B139" t="s">
-        <v>477</v>
+        <v>252</v>
       </c>
       <c r="C139" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>477</v>
+        <v>250</v>
       </c>
       <c r="E139" t="s">
-        <v>479</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G139" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>3171</v>
+        <v>3127</v>
       </c>
       <c r="B140" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C140" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="E140" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F140" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G140" t="s">
         <v>513</v>
@@ -5204,114 +5216,114 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>3185</v>
+        <v>3131</v>
       </c>
       <c r="B141" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C141" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D141" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E141" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="F141" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>3207</v>
+        <v>3133</v>
       </c>
       <c r="B142" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C142" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D142" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E142" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F142" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G142" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>3216</v>
+        <v>3143</v>
       </c>
       <c r="B143" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C143" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E143" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F143" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="G143" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>3230</v>
+        <v>3171</v>
       </c>
       <c r="B144" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C144" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="E144" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F144" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="G144" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>3267</v>
+        <v>3185</v>
       </c>
       <c r="B145" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C145" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="D145" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E145" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F145" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="G145" t="s">
         <v>513</v>
@@ -5319,24 +5331,116 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
+        <v>3207</v>
+      </c>
+      <c r="B146" t="s">
+        <v>488</v>
+      </c>
+      <c r="C146" t="s">
+        <v>489</v>
+      </c>
+      <c r="D146" t="s">
+        <v>490</v>
+      </c>
+      <c r="E146" t="s">
+        <v>488</v>
+      </c>
+      <c r="F146" t="s">
+        <v>491</v>
+      </c>
+      <c r="G146" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>3216</v>
+      </c>
+      <c r="B147" t="s">
+        <v>492</v>
+      </c>
+      <c r="C147" t="s">
+        <v>493</v>
+      </c>
+      <c r="D147" t="s">
+        <v>494</v>
+      </c>
+      <c r="E147" t="s">
+        <v>492</v>
+      </c>
+      <c r="F147" t="s">
+        <v>495</v>
+      </c>
+      <c r="G147" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>3230</v>
+      </c>
+      <c r="B148" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" t="s">
+        <v>497</v>
+      </c>
+      <c r="D148" t="s">
+        <v>498</v>
+      </c>
+      <c r="E148" t="s">
+        <v>499</v>
+      </c>
+      <c r="F148" t="s">
+        <v>499</v>
+      </c>
+      <c r="G148" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>3267</v>
+      </c>
+      <c r="B149" t="s">
+        <v>500</v>
+      </c>
+      <c r="C149" t="s">
+        <v>501</v>
+      </c>
+      <c r="D149" t="s">
+        <v>502</v>
+      </c>
+      <c r="E149" t="s">
+        <v>500</v>
+      </c>
+      <c r="F149" t="s">
+        <v>503</v>
+      </c>
+      <c r="G149" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>3269</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B150" t="s">
         <v>504</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C150" t="s">
         <v>505</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D150" t="s">
         <v>504</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E150" t="s">
         <v>506</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F150" t="s">
         <v>507</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G150" t="s">
         <v>513</v>
       </c>
     </row>
